--- a/cms_system_200_smartpx_uled.xlsx
+++ b/cms_system_200_smartpx_uled.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F6E9D08-0470-4346-80DE-6EE41D776515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5668A7-3882-9D47-9034-EEDAF1382894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6980" yWindow="3520" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="15280" yWindow="5780" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1249,7 +1249,7 @@
         <v>260000</v>
       </c>
       <c r="D6" s="2">
-        <v>400</v>
+        <v>53.3</v>
       </c>
       <c r="E6" s="2">
         <v>3</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <v>13.3</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2">
         <v>4</v>

--- a/cms_system_200_smartpx_uled.xlsx
+++ b/cms_system_200_smartpx_uled.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5668A7-3882-9D47-9034-EEDAF1382894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3109D2-7C1E-AF4A-9212-345767C3623D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15280" yWindow="5780" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
+    <workbookView xWindow="15520" yWindow="3320" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>Sample Rate</t>
   </si>
   <si>
-    <t>Reduction</t>
-  </si>
-  <si>
     <t>Skill mean</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Op Efficiency (J/op)</t>
+  </si>
+  <si>
+    <t>Reduction Ratio</t>
   </si>
 </sst>
 </file>
@@ -551,10 +551,10 @@
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1084,7 +1084,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1094,31 +1094,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/cms_system_200_smartpx_uled.xlsx
+++ b/cms_system_200_smartpx_uled.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3109D2-7C1E-AF4A-9212-345767C3623D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5512E9-5FA4-244C-9027-DDBD28321FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15520" yWindow="3320" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>Category</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>Disk</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>Sample Rate</t>
@@ -545,16 +542,16 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>27</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
@@ -1084,7 +1081,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1104,19 +1101,19 @@
         <v>26</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" t="s">
         <v>27</v>
@@ -1300,9 +1297,7 @@
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2">
         <v>0</v>
       </c>
@@ -1342,7 +1337,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">

--- a/cms_system_200_smartpx_uled.xlsx
+++ b/cms_system_200_smartpx_uled.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wilkie/code/system_flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E5512E9-5FA4-244C-9027-DDBD28321FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3318FF26-24E6-B74F-9860-C38DB70BAFB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15520" yWindow="3320" windowWidth="25560" windowHeight="22100" activeTab="1" xr2:uid="{692BBBC8-C526-4D44-8BFB-29D6E6B2783D}"/>
   </bookViews>
   <sheets>
     <sheet name="Detectors" sheetId="1" r:id="rId1"/>
-    <sheet name="Triggers" sheetId="2" r:id="rId2"/>
+    <sheet name="Processors" sheetId="2" r:id="rId2"/>
     <sheet name="Global" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -223,9 +223,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -263,7 +263,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -369,7 +369,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -511,7 +511,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
